--- a/docss/trend/spain/E_genital.xlsx
+++ b/docss/trend/spain/E_genital.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cap10_Genitourinario_Comarcas" sheetId="2" r:id="rId1"/>
     <sheet name="Tasa_anual_cap10_Genitourinario" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1345,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -12808,8 +12808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12833,13 +12833,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>3.0048431446728401E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C2">
-        <v>3.8723004303861594E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D2">
-        <v>2.299941837791851E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12847,13 +12847,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>4.407674351093923E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C3">
-        <v>4.5525008182518215E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>4.1470776488201404E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12861,13 +12861,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>3.6584428645339055E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C4">
-        <v>3.8001060230554731E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D4">
-        <v>3.5359478631526699E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12875,13 +12875,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>3.3574404044321562E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="C5">
-        <v>4.243601373998223E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D5">
-        <v>2.7338861397305694E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12889,13 +12889,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>2.2310530706950365E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C6">
-        <v>2.6653961392900279E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D6">
-        <v>2.1056857154698037E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12903,13 +12903,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>2.7183445463550799E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C7">
-        <v>3.6046767668477551E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D7">
-        <v>2.0204072271730423E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12917,13 +12917,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>2.6835496757292951E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C8">
-        <v>3.1705320788252174E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D8">
-        <v>2.0233897015902384E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12931,13 +12931,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>4.8482082660573959E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C9">
-        <v>7.0940821695236425E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D9">
-        <v>3.3172225458728284E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12945,13 +12945,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>6.1112445370757211E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="C10">
-        <v>5.8401998037019724E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D10">
-        <v>6.2529404805226174E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12959,13 +12959,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.11895037116185334</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="C11">
-        <v>0.17158933951709457</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D11">
-        <v>8.3875851784054892E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12973,13 +12973,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.17101584413930845</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="C12">
-        <v>0.20102577335016536</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D12">
-        <v>0.1494381811378504</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12987,13 +12987,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>8.7389347009363072E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="C13">
-        <v>0.12383255222078539</v>
+        <v>0.124</v>
       </c>
       <c r="D13">
-        <v>6.0274943043235739E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13001,13 +13001,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>8.0802489974660732E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="C14">
-        <v>0.12880887651587361</v>
+        <v>0.129</v>
       </c>
       <c r="D14">
-        <v>4.2997386077817543E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13015,13 +13015,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>8.2173522569832125E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="C15">
-        <v>0.1029058415305784</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D15">
-        <v>6.6646742635601622E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13029,13 +13029,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>7.9630838862591799E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C16">
-        <v>0.103365198106106</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D16">
-        <v>6.5013172512377149E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
   </sheetData>
